--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_0_2.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_0_2.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1903983.066208412</v>
+        <v>-1905980.739221256</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>271900.5468752167</v>
+        <v>341312.6187530922</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -659,7 +659,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -671,13 +671,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>41.0375763253943</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,28 +704,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>116.788412387557</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -795,7 +795,7 @@
         <v>225.8879277888686</v>
       </c>
       <c r="V3" t="n">
-        <v>232.800587149425</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -814,16 +814,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>160.2491677474086</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -865,10 +865,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>171.7498680634317</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -902,10 +902,10 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>122.0550130897021</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
@@ -914,7 +914,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,10 +941,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -953,16 +953,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>262.5703813572695</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1060,10 +1060,10 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>128.7835007017903</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>99.66075074687578</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>5.511247540012855</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1142,16 +1142,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>34.96500217490164</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,25 +1178,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1294,16 +1294,16 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>132.1393324161322</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,22 +1333,22 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>145.07143439176</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1382,13 +1382,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H11" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1436,7 +1436,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.237938656054</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>95.69941725530217</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>89.77928424144838</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1619,13 +1619,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896909</v>
       </c>
       <c r="H14" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1673,7 +1673,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560545</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,25 +1762,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>93.47046906313219</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -1816,7 +1816,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>110.0663244487796</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1910,7 +1910,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.237938656054</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,25 +1999,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>58.29070341759515</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2050,22 +2050,22 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>115.526976800218</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2084,7 +2084,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206827</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2147,7 +2147,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.237938656054</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2239,19 +2239,19 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2284,19 +2284,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>174.7946635867138</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>199.8684934266712</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C25" t="n">
-        <v>99.11493096898721</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D25" t="n">
-        <v>80.48358288857173</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E25" t="n">
-        <v>78.30207251692855</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F25" t="n">
-        <v>77.28915789329062</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G25" t="n">
-        <v>98.36167833373698</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H25" t="n">
-        <v>80.7819382378955</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I25" t="n">
-        <v>42.28735533463135</v>
+        <v>42.28735533463132</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>41.83246227415164</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S25" t="n">
         <v>129.7889198539626</v>
@@ -2533,16 +2533,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V25" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941875</v>
       </c>
       <c r="W25" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X25" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y25" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C28" t="n">
-        <v>99.11493096898721</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D28" t="n">
-        <v>80.48358288857173</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E28" t="n">
-        <v>78.30207251692855</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F28" t="n">
-        <v>77.28915789329062</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G28" t="n">
-        <v>98.36167833373698</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H28" t="n">
-        <v>80.7819382378955</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I28" t="n">
-        <v>42.28735533463135</v>
+        <v>42.28735533463132</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S28" t="n">
         <v>129.7889198539626</v>
       </c>
       <c r="T28" t="n">
-        <v>153.4156709287482</v>
+        <v>153.4156709287486</v>
       </c>
       <c r="U28" t="n">
-        <v>218.1054622689367</v>
+        <v>218.105462268937</v>
       </c>
       <c r="V28" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W28" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X28" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y28" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="29">
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C31" t="n">
-        <v>99.11493096898721</v>
+        <v>99.11493096898755</v>
       </c>
       <c r="D31" t="n">
-        <v>80.48358288857173</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E31" t="n">
-        <v>78.30207251692855</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F31" t="n">
-        <v>77.28915789329062</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G31" t="n">
-        <v>98.36167833373698</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H31" t="n">
-        <v>80.7819382378955</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I31" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S31" t="n">
-        <v>129.7889198539622</v>
+        <v>129.7889198539626</v>
       </c>
       <c r="T31" t="n">
         <v>153.4156709287486</v>
@@ -3007,16 +3007,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V31" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W31" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X31" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y31" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="32">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898721</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857173</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692855</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329062</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H34" t="n">
-        <v>80.7819382378955</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3244,16 +3244,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X34" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="35">
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692853</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3481,16 +3481,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X37" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="38">
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3661,22 +3661,22 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692849</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G40" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I40" t="n">
         <v>42.28735533463131</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3898,25 +3898,25 @@
         <v>111.7000900522967</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898721</v>
+        <v>99.11493096898725</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857173</v>
+        <v>80.48358288857177</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692855</v>
+        <v>78.30207251692859</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329062</v>
+        <v>77.28915789329066</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373696</v>
+        <v>98.361678333737</v>
       </c>
       <c r="H43" t="n">
-        <v>80.7819382378955</v>
+        <v>80.78193823789555</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463137</v>
+        <v>42.2873553346314</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,16 +3943,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415218</v>
+        <v>41.83246227415221</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539627</v>
       </c>
       <c r="T43" t="n">
-        <v>153.4156709287486</v>
+        <v>153.4156709287487</v>
       </c>
       <c r="U43" t="n">
-        <v>218.1054622689367</v>
+        <v>218.1054622689368</v>
       </c>
       <c r="V43" t="n">
         <v>184.0057531941874</v>
@@ -3961,7 +3961,7 @@
         <v>218.3911082069504</v>
       </c>
       <c r="X43" t="n">
-        <v>157.5777652593965</v>
+        <v>157.5777652593966</v>
       </c>
       <c r="Y43" t="n">
         <v>150.4527632224542</v>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1352.60098147425</v>
+        <v>780.8554976894902</v>
       </c>
       <c r="C2" t="n">
-        <v>983.6384645338385</v>
+        <v>780.8554976894902</v>
       </c>
       <c r="D2" t="n">
-        <v>625.3727659270879</v>
+        <v>422.5897990827397</v>
       </c>
       <c r="E2" t="n">
-        <v>625.3727659270879</v>
+        <v>422.5897990827397</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>422.5897990827397</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U2" t="n">
-        <v>2247.308246834948</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V2" t="n">
-        <v>2247.308246834948</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="W2" t="n">
-        <v>2129.340153514184</v>
+        <v>1540.921096014692</v>
       </c>
       <c r="X2" t="n">
-        <v>2129.340153514184</v>
+        <v>1167.455337753612</v>
       </c>
       <c r="Y2" t="n">
-        <v>1739.200821538372</v>
+        <v>1167.455337753612</v>
       </c>
     </row>
     <row r="3">
@@ -4383,19 +4383,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
         <v>221.4284102424006</v>
@@ -4410,19 +4410,19 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
@@ -4443,7 +4443,7 @@
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4462,13 +4462,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>372.9958041606071</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="C4" t="n">
-        <v>204.0596212327002</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T4" t="n">
-        <v>554.6442689908469</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="U4" t="n">
-        <v>554.6442689908469</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="V4" t="n">
-        <v>554.6442689908469</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="W4" t="n">
-        <v>554.6442689908469</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="X4" t="n">
-        <v>554.6442689908469</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="Y4" t="n">
-        <v>554.6442689908469</v>
+        <v>513.8405610245969</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1702.337823625994</v>
+        <v>1714.263756178945</v>
       </c>
       <c r="C5" t="n">
-        <v>1333.375306685582</v>
+        <v>1345.301239238533</v>
       </c>
       <c r="D5" t="n">
-        <v>1333.375306685582</v>
+        <v>1345.301239238533</v>
       </c>
       <c r="E5" t="n">
-        <v>1210.087414675782</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F5" t="n">
-        <v>799.1015098861748</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4568,16 +4568,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V5" t="n">
-        <v>2465.942913862886</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W5" t="n">
-        <v>2465.942913862886</v>
+        <v>2100.863596243066</v>
       </c>
       <c r="X5" t="n">
-        <v>2092.477155601806</v>
+        <v>2100.863596243066</v>
       </c>
       <c r="Y5" t="n">
-        <v>1702.337823625994</v>
+        <v>2100.863596243066</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4668,7 +4668,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
         <v>2488.762748073963</v>
@@ -4683,10 +4683,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,16 +4699,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>184.027325963587</v>
+        <v>154.6104068172087</v>
       </c>
       <c r="C7" t="n">
-        <v>184.027325963587</v>
+        <v>154.6104068172087</v>
       </c>
       <c r="D7" t="n">
-        <v>184.027325963587</v>
+        <v>154.6104068172087</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>154.6104068172087</v>
       </c>
       <c r="F7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V7" t="n">
-        <v>473.4444960005476</v>
+        <v>444.0275768541693</v>
       </c>
       <c r="W7" t="n">
-        <v>184.027325963587</v>
+        <v>154.6104068172087</v>
       </c>
       <c r="X7" t="n">
-        <v>184.027325963587</v>
+        <v>154.6104068172087</v>
       </c>
       <c r="Y7" t="n">
-        <v>184.027325963587</v>
+        <v>154.6104068172087</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1167.455337753612</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="C8" t="n">
-        <v>1167.455337753612</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="D8" t="n">
-        <v>809.1896391468615</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E8" t="n">
-        <v>423.4013865486173</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F8" t="n">
-        <v>416.4558857994138</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2478.514423990285</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2224.752638628377</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V8" t="n">
-        <v>1893.689751284806</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W8" t="n">
-        <v>1540.921096014692</v>
+        <v>2113.174258592771</v>
       </c>
       <c r="X8" t="n">
-        <v>1167.455337753612</v>
+        <v>2113.174258592771</v>
       </c>
       <c r="Y8" t="n">
-        <v>1167.455337753612</v>
+        <v>2113.174258592771</v>
       </c>
     </row>
     <row r="9">
@@ -4857,19 +4857,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
         <v>221.4284102424006</v>
@@ -4902,22 +4902,22 @@
         <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>484.4236418782189</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="C10" t="n">
-        <v>484.4236418782189</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="D10" t="n">
-        <v>334.3070024658831</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="E10" t="n">
-        <v>334.3070024658831</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="F10" t="n">
-        <v>187.4170549679727</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4966,46 +4966,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>484.4236418782189</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>484.4236418782189</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="U10" t="n">
-        <v>484.4236418782189</v>
+        <v>354.283994459117</v>
       </c>
       <c r="V10" t="n">
-        <v>484.4236418782189</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="W10" t="n">
-        <v>484.4236418782189</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="X10" t="n">
-        <v>484.4236418782189</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="Y10" t="n">
-        <v>484.4236418782189</v>
+        <v>99.5995062532301</v>
       </c>
     </row>
     <row r="11">
@@ -5015,19 +5015,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G11" t="n">
         <v>488.193237080547</v>
@@ -5036,22 +5036,22 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
@@ -5063,28 +5063,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5115,28 +5115,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>388.8958536704857</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>1002.792923427374</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M12" t="n">
-        <v>1323.128242957076</v>
+        <v>1608.660951743751</v>
       </c>
       <c r="N12" t="n">
-        <v>1667.648898594694</v>
+        <v>1953.181607381369</v>
       </c>
       <c r="O12" t="n">
-        <v>1916.402312678657</v>
+        <v>2201.935021465331</v>
       </c>
       <c r="P12" t="n">
-        <v>2436.702934414404</v>
+        <v>2554.178946862809</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>414.0663679705859</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="C13" t="n">
-        <v>245.130185042679</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="D13" t="n">
-        <v>245.130185042679</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028587</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028587</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028587</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241973</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688088</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.497233179938</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471208</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
-        <v>1049.608084974668</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980065</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585748</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557904</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1402.250192522245</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1402.250192522245</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1402.250192522245</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U13" t="n">
-        <v>1113.121553735804</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V13" t="n">
-        <v>1113.121553735804</v>
+        <v>1184.444709648976</v>
       </c>
       <c r="W13" t="n">
-        <v>823.704383698843</v>
+        <v>895.0275396120149</v>
       </c>
       <c r="X13" t="n">
-        <v>595.7148328008257</v>
+        <v>895.0275396120149</v>
       </c>
       <c r="Y13" t="n">
-        <v>595.7148328008257</v>
+        <v>674.2349604684848</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
@@ -5261,10 +5261,10 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
         <v>488.193237080547</v>
@@ -5273,10 +5273,10 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K14" t="n">
         <v>889.2841917514088</v>
@@ -5285,10 +5285,10 @@
         <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643324</v>
@@ -5297,31 +5297,31 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5352,19 +5352,19 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126483</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K15" t="n">
-        <v>674.428562457161</v>
+        <v>246.2867756623457</v>
       </c>
       <c r="L15" t="n">
-        <v>1214.889396603096</v>
+        <v>860.1838454192343</v>
       </c>
       <c r="M15" t="n">
-        <v>1214.889396603096</v>
+        <v>1180.519164948936</v>
       </c>
       <c r="N15" t="n">
         <v>1559.410052240715</v>
@@ -5410,40 +5410,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>377.6878657662453</v>
+        <v>898.5039869983193</v>
       </c>
       <c r="C16" t="n">
-        <v>208.7516828383384</v>
+        <v>804.0893717830343</v>
       </c>
       <c r="D16" t="n">
-        <v>208.7516828383384</v>
+        <v>653.9727323706985</v>
       </c>
       <c r="E16" t="n">
-        <v>208.7516828383384</v>
+        <v>506.0596387883054</v>
       </c>
       <c r="F16" t="n">
-        <v>208.7516828383384</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G16" t="n">
-        <v>208.7516828383384</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H16" t="n">
         <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5452,34 +5452,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
         <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1187.921157035281</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>1076.743051531463</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U16" t="n">
-        <v>1076.743051531463</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="V16" t="n">
-        <v>1076.743051531463</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="W16" t="n">
-        <v>787.3258814945024</v>
+        <v>898.5039869983193</v>
       </c>
       <c r="X16" t="n">
-        <v>559.336330596485</v>
+        <v>898.5039869983193</v>
       </c>
       <c r="Y16" t="n">
-        <v>559.336330596485</v>
+        <v>898.5039869983193</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5498,67 +5498,67 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5589,28 +5589,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>388.8958536704857</v>
+        <v>506.3718661188911</v>
       </c>
       <c r="L18" t="n">
-        <v>1002.792923427374</v>
+        <v>1120.26893587578</v>
       </c>
       <c r="M18" t="n">
-        <v>1323.128242957076</v>
+        <v>1440.604255405482</v>
       </c>
       <c r="N18" t="n">
-        <v>1667.648898594694</v>
+        <v>1785.124911043099</v>
       </c>
       <c r="O18" t="n">
-        <v>1916.402312678657</v>
+        <v>2033.878325127062</v>
       </c>
       <c r="P18" t="n">
-        <v>2436.702934414404</v>
+        <v>2554.178946862809</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,40 +5647,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028587</v>
+        <v>861.4909633328887</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028587</v>
+        <v>692.5547804049818</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028587</v>
+        <v>542.438140992646</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028587</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5689,34 +5689,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1382.222354598087</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1158.436939387592</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U19" t="n">
-        <v>869.3083006011507</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V19" t="n">
-        <v>614.6238123952638</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="W19" t="n">
-        <v>325.2066423583032</v>
+        <v>920.3704617344999</v>
       </c>
       <c r="X19" t="n">
-        <v>97.21709146028587</v>
+        <v>920.3704617344999</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028587</v>
+        <v>920.3704617344999</v>
       </c>
     </row>
     <row r="20">
@@ -5726,7 +5726,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
@@ -5747,16 +5747,16 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
@@ -5765,37 +5765,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5826,28 +5826,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>904.3916683255102</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M21" t="n">
-        <v>1224.726987855212</v>
+        <v>1608.660951743751</v>
       </c>
       <c r="N21" t="n">
-        <v>1569.24764349283</v>
+        <v>1953.181607381369</v>
       </c>
       <c r="O21" t="n">
-        <v>1818.001057576792</v>
+        <v>2201.935021465331</v>
       </c>
       <c r="P21" t="n">
-        <v>2338.301679312539</v>
+        <v>2554.178946862809</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,40 +5884,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>584.4452354807079</v>
+        <v>245.130185042679</v>
       </c>
       <c r="C22" t="n">
-        <v>415.509052552801</v>
+        <v>245.130185042679</v>
       </c>
       <c r="D22" t="n">
-        <v>265.3924131404652</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E22" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5926,34 +5926,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557903</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T22" t="n">
-        <v>1322.356004308697</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U22" t="n">
-        <v>1033.227365522255</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V22" t="n">
-        <v>1033.227365522255</v>
+        <v>473.1197359406963</v>
       </c>
       <c r="W22" t="n">
-        <v>1033.227365522255</v>
+        <v>473.1197359406963</v>
       </c>
       <c r="X22" t="n">
-        <v>805.237814624238</v>
+        <v>245.130185042679</v>
       </c>
       <c r="Y22" t="n">
-        <v>584.4452354807079</v>
+        <v>245.130185042679</v>
       </c>
     </row>
     <row r="23">
@@ -5963,34 +5963,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155899</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823791</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6011,28 +6011,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6063,28 +6063,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>97.21709146028587</v>
+        <v>164.8761557877077</v>
       </c>
       <c r="K24" t="n">
-        <v>508.1073603047986</v>
+        <v>575.7664246322204</v>
       </c>
       <c r="L24" t="n">
-        <v>894.5540770733946</v>
+        <v>1189.663494389109</v>
       </c>
       <c r="M24" t="n">
-        <v>1214.889396603096</v>
+        <v>1509.998813918811</v>
       </c>
       <c r="N24" t="n">
-        <v>1559.410052240715</v>
+        <v>1854.519469556429</v>
       </c>
       <c r="O24" t="n">
-        <v>1808.163466324677</v>
+        <v>2103.272883640391</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C25" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D25" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E25" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083205</v>
       </c>
       <c r="F25" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G25" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H25" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
         <v>177.05035515254</v>
@@ -6172,25 +6172,25 @@
         <v>1996.265827986523</v>
       </c>
       <c r="S25" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T25" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U25" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V25" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W25" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X25" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y25" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="26">
@@ -6212,31 +6212,31 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795205</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
@@ -6291,37 +6291,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>508.1073603047986</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>1122.004430061687</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M27" t="n">
-        <v>1442.339749591389</v>
+        <v>1609.589088435861</v>
       </c>
       <c r="N27" t="n">
-        <v>1786.860405229007</v>
+        <v>1954.109744073479</v>
       </c>
       <c r="O27" t="n">
-        <v>2035.613819312969</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C28" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D28" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E28" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083205</v>
       </c>
       <c r="F28" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G28" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H28" t="n">
         <v>139.9315917982973</v>
@@ -6415,19 +6415,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U28" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V28" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W28" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X28" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y28" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="29">
@@ -6452,58 +6452,58 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
         <v>365.8813331823786</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6528,34 +6528,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>164.8761557877077</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>575.7664246322204</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>1189.663494389109</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M30" t="n">
-        <v>1509.998813918811</v>
+        <v>1847.655958041207</v>
       </c>
       <c r="N30" t="n">
-        <v>1854.519469556429</v>
+        <v>2192.176613678825</v>
       </c>
       <c r="O30" t="n">
-        <v>2103.272883640391</v>
+        <v>2440.930027762787</v>
       </c>
       <c r="P30" t="n">
         <v>2623.573505376138</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108334</v>
       </c>
       <c r="C31" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D31" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E31" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083205</v>
       </c>
       <c r="F31" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G31" t="n">
         <v>221.5295092103129</v>
@@ -6616,16 +6616,16 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K31" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L31" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M31" t="n">
         <v>1048.866260860496</v>
@@ -6640,19 +6640,19 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q31" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R31" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S31" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T31" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U31" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V31" t="n">
         <v>1304.027639859417</v>
@@ -6661,10 +6661,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X31" t="n">
-        <v>924.2611010045209</v>
+        <v>924.261101004521</v>
       </c>
       <c r="Y31" t="n">
-        <v>772.2886129010319</v>
+        <v>772.288612901032</v>
       </c>
     </row>
     <row r="32">
@@ -6692,13 +6692,13 @@
         <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
         <v>889.2841917514079</v>
@@ -6716,10 +6716,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014292</v>
@@ -6786,13 +6786,13 @@
         <v>1288.32563221405</v>
       </c>
       <c r="M33" t="n">
-        <v>1608.660951743751</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N33" t="n">
-        <v>1953.181607381369</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O33" t="n">
-        <v>2201.935021465331</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P33" t="n">
         <v>2623.573505376138</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108326</v>
       </c>
       <c r="C34" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229667</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506722</v>
+        <v>478.0475988506721</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083202</v>
+        <v>398.9545963083201</v>
       </c>
       <c r="F34" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504508</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103126</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H34" t="n">
-        <v>139.9315917982969</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
         <v>97.21709146028584</v>
@@ -6859,7 +6859,7 @@
         <v>177.0503551525399</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L34" t="n">
         <v>709.8489468649691</v>
@@ -6898,10 +6898,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045206</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010312</v>
       </c>
     </row>
     <row r="35">
@@ -6911,7 +6911,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
@@ -6920,25 +6920,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
@@ -6956,10 +6956,10 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231264</v>
@@ -6971,16 +6971,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7011,22 +7011,22 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>97.21709146028584</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>711.1141612171745</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M36" t="n">
-        <v>1479.482307609636</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N36" t="n">
-        <v>2283.893885873787</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O36" t="n">
         <v>2623.573505376138</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108334</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229675</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506729</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G37" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H37" t="n">
         <v>139.9315917982973</v>
@@ -7093,13 +7093,13 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525401</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254959</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649694</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7108,19 +7108,19 @@
         <v>1386.860941116388</v>
       </c>
       <c r="O37" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.18649035013</v>
       </c>
       <c r="P37" t="n">
         <v>1932.236826184156</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R37" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S37" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T37" t="n">
         <v>1710.200584771663</v>
@@ -7135,10 +7135,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045209</v>
+        <v>924.261101004521</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010319</v>
+        <v>772.288612901032</v>
       </c>
     </row>
     <row r="38">
@@ -7151,28 +7151,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H38" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
         <v>889.2841917514085</v>
@@ -7205,16 +7205,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7251,22 +7251,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>97.21709146028584</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>711.1141612171745</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M39" t="n">
-        <v>1031.449480746876</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N39" t="n">
-        <v>1771.466266460128</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O39" t="n">
-        <v>2440.930027762787</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P39" t="n">
         <v>2623.573505376138</v>
@@ -7306,16 +7306,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229671</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083208</v>
       </c>
       <c r="F40" t="n">
         <v>320.8847398504512</v>
@@ -7327,16 +7327,16 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7375,7 +7375,7 @@
         <v>924.2611010045207</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="41">
@@ -7385,55 +7385,55 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231263</v>
@@ -7476,34 +7476,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G42" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>97.21709146028583</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>97.21709146028583</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>97.21709146028583</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M42" t="n">
-        <v>865.5852378527472</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N42" t="n">
-        <v>1669.996816116898</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O42" t="n">
-        <v>2339.460577419557</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P42" t="n">
         <v>2623.573505376138</v>
@@ -7543,55 +7543,55 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229674</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506721</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083202</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504514</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G43" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103125</v>
       </c>
       <c r="H43" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982974</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
         <v>177.0503551525399</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649699</v>
       </c>
       <c r="M43" t="n">
-        <v>1048.866260860496</v>
+        <v>1048.866260860497</v>
       </c>
       <c r="N43" t="n">
-        <v>1386.860941116388</v>
+        <v>1386.860941116389</v>
       </c>
       <c r="O43" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.18649035013</v>
       </c>
       <c r="P43" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184157</v>
       </c>
       <c r="Q43" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R43" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S43" t="n">
         <v>1865.165908942116</v>
@@ -7603,16 +7603,16 @@
         <v>1489.892037025263</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W43" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010316</v>
       </c>
     </row>
     <row r="44">
@@ -7725,22 +7725,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>97.21709146028584</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>97.21709146028584</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M45" t="n">
-        <v>629.3975440735812</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N45" t="n">
-        <v>1433.809122337732</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O45" t="n">
-        <v>2103.272883640391</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P45" t="n">
         <v>2623.573505376138</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229672</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H46" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982972</v>
       </c>
       <c r="I46" t="n">
         <v>97.21709146028584</v>
@@ -7807,10 +7807,10 @@
         <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254954</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649689</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7846,10 +7846,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
   </sheetData>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747073</v>
+        <v>194.3570488013777</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747166</v>
+        <v>194.3570488013773</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -9006,13 +9006,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
         <v>479.3423743435536</v>
@@ -9422,7 +9422,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298197</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9714,7 +9714,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9735,7 +9735,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9896,7 +9896,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9951,7 +9951,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -9969,13 +9969,13 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10440,10 +10440,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -10665,7 +10665,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10677,7 +10677,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10902,7 +10902,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
@@ -10914,10 +10914,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -11139,10 +11139,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
         <v>465.7050637499999</v>
@@ -11151,16 +11151,16 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11376,10 +11376,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
         <v>465.7050637499999</v>
@@ -11388,16 +11388,16 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -22553,13 +22553,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>353.1733612263873</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>372.7465936954007</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -22592,7 +22592,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -22607,7 +22607,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>232.452556329856</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -22705,13 +22705,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>6.997653351219242</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -22720,13 +22720,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22747,22 +22747,22 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>118.8260620202201</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -22771,7 +22771,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,28 +23461,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>14.26493514849061</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>162.3583590823796</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23650,25 +23650,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>73.77635203549565</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23704,7 +23704,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>111.4812366096097</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23887,25 +23887,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>121.5412767643421</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23938,22 +23938,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>82.39383318338523</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24127,19 +24127,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
@@ -24172,19 +24172,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>46.75289747167548</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>52.26914989715678</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>5.044853423896711e-13</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24652,7 +24652,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1329498.803108211</v>
+        <v>1329498.80310821</v>
       </c>
     </row>
     <row r="8">
@@ -26311,10 +26311,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>36783.84869564042</v>
+        <v>36783.84869564044</v>
       </c>
       <c r="C2" t="n">
-        <v>41052.08849321417</v>
+        <v>41052.08849321415</v>
       </c>
       <c r="D2" t="n">
         <v>41052.08849321416</v>
@@ -26323,37 +26323,37 @@
         <v>39102.90597377087</v>
       </c>
       <c r="F2" t="n">
-        <v>39102.90597377087</v>
+        <v>39102.90597377089</v>
       </c>
       <c r="G2" t="n">
-        <v>39102.90597377087</v>
+        <v>39102.90597377088</v>
       </c>
       <c r="H2" t="n">
         <v>39102.90597377087</v>
       </c>
       <c r="I2" t="n">
+        <v>41052.08849321425</v>
+      </c>
+      <c r="J2" t="n">
         <v>41052.08849321424</v>
       </c>
-      <c r="J2" t="n">
-        <v>41052.08849321425</v>
-      </c>
       <c r="K2" t="n">
-        <v>41052.08849321416</v>
+        <v>41052.08849321414</v>
       </c>
       <c r="L2" t="n">
-        <v>41052.0884932142</v>
+        <v>41052.08849321424</v>
       </c>
       <c r="M2" t="n">
-        <v>41052.08849321425</v>
+        <v>41052.08849321424</v>
       </c>
       <c r="N2" t="n">
+        <v>41052.08849321421</v>
+      </c>
+      <c r="O2" t="n">
         <v>41052.08849321424</v>
       </c>
-      <c r="O2" t="n">
-        <v>41052.0884932142</v>
-      </c>
       <c r="P2" t="n">
-        <v>41052.08849321425</v>
+        <v>41052.08849321423</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768964</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,10 +26384,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>54505.5121037125</v>
+        <v>54505.51210371254</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>4.547473508864641e-11</v>
+        <v>7.958078640513122e-11</v>
       </c>
     </row>
     <row r="4">
@@ -26415,46 +26415,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>90335.72423892131</v>
+        <v>90335.72423892134</v>
       </c>
       <c r="C4" t="n">
         <v>139059.1391806191</v>
       </c>
       <c r="D4" t="n">
-        <v>139059.139180619</v>
+        <v>139059.1391806191</v>
       </c>
       <c r="E4" t="n">
         <v>787.7936905758695</v>
       </c>
       <c r="F4" t="n">
-        <v>787.7936905758287</v>
+        <v>787.7936905758927</v>
       </c>
       <c r="G4" t="n">
-        <v>787.7936905758488</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="H4" t="n">
-        <v>787.7936905758488</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="I4" t="n">
-        <v>23206.58093189634</v>
+        <v>23206.58093189635</v>
       </c>
       <c r="J4" t="n">
-        <v>23206.58093189634</v>
+        <v>23206.58093189635</v>
       </c>
       <c r="K4" t="n">
-        <v>23206.58093189639</v>
+        <v>23206.58093189635</v>
       </c>
       <c r="L4" t="n">
-        <v>23206.58093189634</v>
+        <v>23206.58093189635</v>
       </c>
       <c r="M4" t="n">
-        <v>23206.58093189634</v>
+        <v>23206.58093189633</v>
       </c>
       <c r="N4" t="n">
         <v>23206.58093189635</v>
       </c>
       <c r="O4" t="n">
-        <v>23206.58093189639</v>
+        <v>23206.58093189632</v>
       </c>
       <c r="P4" t="n">
         <v>23206.58093189636</v>
@@ -26476,31 +26476,31 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="J5" t="n">
         <v>97715.10582002539</v>
       </c>
       <c r="K5" t="n">
-        <v>97715.10582002538</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="L5" t="n">
         <v>97715.10582002539</v>
       </c>
       <c r="M5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="N5" t="n">
         <v>97715.10582002539</v>
@@ -26519,25 +26519,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-726378.8328212348</v>
+        <v>-726592.2448111133</v>
       </c>
       <c r="C6" t="n">
         <v>-180866.1287508144</v>
       </c>
       <c r="D6" t="n">
-        <v>-180866.1287508143</v>
+        <v>-180866.1287508144</v>
       </c>
       <c r="E6" t="n">
-        <v>-578832.250142418</v>
+        <v>-578929.7092683897</v>
       </c>
       <c r="F6" t="n">
-        <v>-53672.21366552162</v>
+        <v>-53769.67279149379</v>
       </c>
       <c r="G6" t="n">
-        <v>-53672.21366552163</v>
+        <v>-53769.67279149377</v>
       </c>
       <c r="H6" t="n">
-        <v>-53672.21366552163</v>
+        <v>-53769.67279149379</v>
       </c>
       <c r="I6" t="n">
         <v>-134375.11036242</v>
@@ -26546,22 +26546,22 @@
         <v>-256292.8174513004</v>
       </c>
       <c r="K6" t="n">
-        <v>-79869.59825870761</v>
+        <v>-79869.5982587076</v>
       </c>
       <c r="L6" t="n">
-        <v>-79869.59825870753</v>
+        <v>-79869.5982587075</v>
       </c>
       <c r="M6" t="n">
         <v>-214670.6134925447</v>
       </c>
       <c r="N6" t="n">
-        <v>-134375.11036242</v>
+        <v>-134375.1103624201</v>
       </c>
       <c r="O6" t="n">
-        <v>-79869.59825870753</v>
+        <v>-79869.5982587074</v>
       </c>
       <c r="P6" t="n">
-        <v>-79869.59825870754</v>
+        <v>-79869.5982587076</v>
       </c>
     </row>
   </sheetData>
@@ -26704,25 +26704,25 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J2" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K2" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964058</v>
       </c>
       <c r="P2" t="n">
         <v>68.13189012964068</v>
@@ -26735,31 +26735,31 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>377.7436642170866</v>
+      </c>
+      <c r="C3" t="n">
+        <v>377.7436642170866</v>
+      </c>
+      <c r="D3" t="n">
         <v>377.7436642170867</v>
       </c>
-      <c r="C3" t="n">
-        <v>377.7436642170867</v>
-      </c>
-      <c r="D3" t="n">
-        <v>377.7436642170866</v>
-      </c>
       <c r="E3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
         <v>830.3824054541003</v>
@@ -26771,10 +26771,10 @@
         <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
         <v>830.3824054541002</v>
@@ -26799,7 +26799,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="F4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="G4" t="n">
         <v>1215.213643253573</v>
@@ -26926,7 +26926,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>9.947598300641403e-14</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370138</v>
+        <v>452.6387412370135</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27163,7 +27163,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,25 +27379,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>53.70268451532411</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,25 +27427,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27552,7 +27552,7 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
@@ -27579,22 +27579,22 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>53.28523739465257</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>133.3115813036079</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27603,7 +27603,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27622,10 +27622,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>259.8753569825597</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27634,7 +27634,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,10 +27661,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -27673,16 +27673,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>86.67058736014349</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27780,10 +27780,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>17.65046194477887</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>45.76029727605547</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27795,7 +27795,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,10 +27816,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>377.2225941234677</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27862,16 +27862,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>378.8191678458933</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,25 +27898,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28014,16 +28014,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>35.17046984291872</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,22 +28053,22 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>141.2104398502177</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28269,7 +28269,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>1.508245380440106e-12</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C25" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D25" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E25" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F25" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G25" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H25" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I25" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J25" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K25" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L25" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M25" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N25" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O25" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P25" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q25" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R25" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S25" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T25" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U25" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V25" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W25" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X25" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y25" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="26">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C28" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D28" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E28" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F28" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G28" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H28" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I28" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J28" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K28" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L28" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M28" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N28" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O28" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P28" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q28" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R28" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S28" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T28" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U28" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V28" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W28" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X28" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y28" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="29">
@@ -29509,7 +29509,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y31" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="41">
@@ -30457,7 +30457,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964058</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964058</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964058</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964058</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964058</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964058</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964058</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964058</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964058</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964058</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964058</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964058</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964058</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964058</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964058</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964058</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964058</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964058</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964058</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964058</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964058</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964058</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964058</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964058</v>
       </c>
     </row>
     <row r="44">
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,19 +31118,19 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
-        <v>131.2017781649102</v>
+        <v>11.76595806653259</v>
       </c>
       <c r="L3" t="n">
         <v>176.4169820478007</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>35.71704454957967</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31519,19 +31519,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31750,43 +31750,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,22 +31829,22 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -31856,19 +31856,19 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>341.067822345855</v>
+        <v>171.3135836203301</v>
       </c>
       <c r="Q12" t="n">
-        <v>118.6626388367727</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31914,7 +31914,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31926,10 +31926,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31938,19 +31938,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,43 +31987,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,46 +32066,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>313.6340689672589</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>34.71740571127339</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32151,7 +32151,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32163,10 +32163,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32175,19 +32175,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,43 +32224,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,22 +32303,22 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>118.6626388367733</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -32330,19 +32330,19 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
-        <v>118.6626388367727</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32388,7 +32388,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32400,10 +32400,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32412,19 +32412,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,43 +32461,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,22 +32540,22 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -32567,19 +32567,19 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>341.067822345855</v>
+        <v>171.3135836203301</v>
       </c>
       <c r="Q21" t="n">
-        <v>218.0578460103733</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32625,7 +32625,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32637,10 +32637,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32649,19 +32649,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,43 +32698,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,22 +32777,22 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>69.08908054587592</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>158.0642534345928</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -32804,19 +32804,19 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710957</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32862,7 +32862,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32874,10 +32874,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32886,19 +32886,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,43 +32935,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304423</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,46 +33014,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>0.9375118102116744</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P27" t="n">
-        <v>111.3199910445496</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710957</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33099,7 +33099,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33111,10 +33111,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33123,19 +33123,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33260,7 +33260,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>69.08908054587593</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33269,7 +33269,7 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>241.4090972701574</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -33278,7 +33278,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -33506,16 +33506,16 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>241.4090972701575</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -33734,10 +33734,10 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
         <v>387.8120847358985</v>
@@ -33746,10 +33746,10 @@
         <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O36" t="n">
-        <v>91.84465193776708</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -33883,16 +33883,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33901,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33910,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33919,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33962,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,22 +33971,22 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>399.4910404804378</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -33998,10 +33998,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34062,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34074,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,16 +34120,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34147,7 +34147,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34156,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,37 +34208,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>102.4943942860912</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34299,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34445,31 +34445,31 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>213.9849829127209</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
         <v>33.17612723677464</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,10 +34775,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34787,13 +34787,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>220.2054057751866</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35024,16 +35024,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535575</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35261,16 +35261,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535667</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35410,28 +35410,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,10 +35489,10 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>126.6237980382196</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594836</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
         <v>323.5710298279816</v>
@@ -35504,10 +35504,10 @@
         <v>251.2660748322851</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714619</v>
+        <v>355.801944845937</v>
       </c>
       <c r="Q12" t="n">
-        <v>188.7581524866003</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556705</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,28 +35647,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,25 +35723,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>545.9200344908439</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N15" t="n">
-        <v>348.0006622602202</v>
+        <v>382.7180679714936</v>
       </c>
       <c r="O15" t="n">
         <v>251.2660748322851</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714619</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,28 +35884,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,10 +35963,10 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>126.6237980382196</v>
+        <v>245.2864368749929</v>
       </c>
       <c r="L18" t="n">
-        <v>620.0980502594836</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
         <v>323.5710298279816</v>
@@ -35978,10 +35978,10 @@
         <v>251.2660748322851</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714619</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
-        <v>188.7581524866003</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,28 +36121,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,10 +36200,10 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M21" t="n">
         <v>323.5710298279816</v>
@@ -36215,10 +36215,10 @@
         <v>251.2660748322851</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714619</v>
+        <v>355.801944845937</v>
       </c>
       <c r="Q21" t="n">
-        <v>288.1533596602009</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,28 +36358,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,13 +36434,13 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>68.34248921961806</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>390.3502189581778</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M24" t="n">
         <v>323.5710298279816</v>
@@ -36452,10 +36452,10 @@
         <v>251.2660748322851</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714619</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K25" t="n">
         <v>219.8343186595512</v>
@@ -36528,7 +36528,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O25" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P25" t="n">
         <v>246.5154907414414</v>
@@ -36595,28 +36595,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109055</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>620.0980502594836</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
-        <v>323.5710298279816</v>
+        <v>324.5085416381933</v>
       </c>
       <c r="N27" t="n">
         <v>348.0006622602202</v>
       </c>
       <c r="O27" t="n">
-        <v>251.2660748322851</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P27" t="n">
-        <v>295.8083522701565</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K28" t="n">
         <v>219.8343186595512</v>
@@ -36765,7 +36765,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O28" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P28" t="n">
         <v>246.5154907414414</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>68.34248921961807</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
         <v>415.0406756005178</v>
@@ -36917,7 +36917,7 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
-        <v>323.5710298279816</v>
+        <v>564.980127098139</v>
       </c>
       <c r="N30" t="n">
         <v>348.0006622602202</v>
@@ -36926,7 +36926,7 @@
         <v>251.2660748322851</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714618</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>80.63966029520616</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K31" t="n">
         <v>219.8343186595512</v>
@@ -37002,10 +37002,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O31" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P31" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q31" t="n">
         <v>107.3575901015154</v>
@@ -37154,16 +37154,16 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M33" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N33" t="n">
-        <v>348.0006622602202</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O33" t="n">
-        <v>251.2660748322851</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>425.8974584957645</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520616</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37239,10 +37239,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q34" t="n">
         <v>107.3575901015154</v>
@@ -37382,10 +37382,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
         <v>620.0980502594834</v>
@@ -37394,10 +37394,10 @@
         <v>776.1294408004662</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415665</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O36" t="n">
-        <v>343.1107267700522</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520617</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37476,10 +37476,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q37" t="n">
         <v>107.3575901015154</v>
@@ -37543,13 +37543,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,25 +37619,25 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N39" t="n">
-        <v>747.4917027406581</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O39" t="n">
-        <v>676.2260215178376</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37713,10 +37713,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q40" t="n">
         <v>107.3575901015154</v>
@@ -37780,7 +37780,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,25 +37856,25 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M42" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415663</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O42" t="n">
-        <v>676.2260215178376</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>286.9827555116981</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37935,16 +37935,16 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520614</v>
+        <v>80.63966029520611</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
       </c>
       <c r="L43" t="n">
-        <v>318.3460770095692</v>
+        <v>318.3460770095691</v>
       </c>
       <c r="M43" t="n">
-        <v>342.4417313086132</v>
+        <v>342.4417313086131</v>
       </c>
       <c r="N43" t="n">
         <v>341.4087679352442</v>
@@ -37953,10 +37953,10 @@
         <v>304.3692416502435</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414413</v>
       </c>
       <c r="Q43" t="n">
-        <v>107.3575901015154</v>
+        <v>107.3575901015153</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38093,25 +38093,25 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M45" t="n">
-        <v>537.5560127407025</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415663</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O45" t="n">
-        <v>676.2260215178376</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
